--- a/testData/backup_restore_test_data.xlsx
+++ b/testData/backup_restore_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="backup_sys_config" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,18 +113,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称简写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +210,14 @@
   </si>
   <si>
     <t>上传成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -763,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -778,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -793,10 +789,10 @@
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
@@ -810,10 +806,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -828,16 +824,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>2</v>
@@ -849,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -922,25 +918,25 @@
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -948,13 +944,13 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>514</v>
@@ -975,40 +971,40 @@
         <v>418</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testData/backup_restore_test_data.xlsx
+++ b/testData/backup_restore_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="backup_sys_config" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.23.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +210,14 @@
   </si>
   <si>
     <t>cyyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +606,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -633,37 +633,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -674,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
         <v>514</v>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>68948</v>
@@ -698,13 +698,13 @@
         <v>418</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -756,43 +756,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
@@ -800,22 +800,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>69279</v>
@@ -824,16 +824,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>2</v>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -885,58 +885,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>514</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>72476</v>
@@ -971,40 +971,40 @@
         <v>418</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="M2" s="2">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
